--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>65</t>
   </si>
 </sst>
 </file>
@@ -745,8 +748,8 @@
       <c r="A23" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B23" t="n" s="0">
-        <v>60.0</v>
+      <c r="B23" t="s" s="0">
+        <v>8</v>
       </c>
       <c r="C23" s="0"/>
       <c r="D23" t="n" s="0">

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -751,7 +751,9 @@
       <c r="B23" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C23" s="0"/>
+      <c r="C23" t="s" s="0">
+        <v>7</v>
+      </c>
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -758,6 +758,14 @@
         <v>0.2</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -41,6 +41,18 @@
   </si>
   <si>
     <t>65</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -760,11 +772,17 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-      <c r="D24" s="0"/>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="19">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -53,6 +53,24 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>customer.setDiscount($param);</t>
+  </si>
+  <si>
+    <t>customer.setCategory("$param")</t>
+  </si>
+  <si>
+    <t>Test 2 For git</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -456,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +499,7 @@
           <t>com.example.pricing</t>
         </is>
       </c>
+      <c r="D1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -493,6 +512,7 @@
           <t>com.example.Customer</t>
         </is>
       </c>
+      <c r="D2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -505,6 +525,7 @@
           <t>java.math.BigDecimal</t>
         </is>
       </c>
+      <c r="D3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -517,6 +538,7 @@
           <t>java</t>
         </is>
       </c>
+      <c r="D4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -529,6 +551,7 @@
           <t>false</t>
         </is>
       </c>
+      <c r="D5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -541,6 +564,7 @@
           <t>pricing</t>
         </is>
       </c>
+      <c r="D6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -553,6 +577,7 @@
           <t>discounts</t>
         </is>
       </c>
+      <c r="D7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -565,6 +590,7 @@
           <t>true</t>
         </is>
       </c>
+      <c r="D8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -577,6 +603,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="D9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -589,6 +616,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="D10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -601,6 +629,7 @@
           <t>2026-09-27</t>
         </is>
       </c>
+      <c r="D11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -613,6 +642,7 @@
           <t>PricingOps</t>
         </is>
       </c>
+      <c r="D12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -625,6 +655,7 @@
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
+      <c r="D13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -637,6 +668,7 @@
           <t>1.0.0</t>
         </is>
       </c>
+      <c r="D14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -649,6 +681,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="D15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -661,6 +694,7 @@
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
+      <c r="D16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -673,6 +707,7 @@
           <t>DiscountRules</t>
         </is>
       </c>
+      <c r="D17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -690,10 +725,11 @@
           <t>CONDITION</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr" s="0">
-        <is>
-          <t>ACTION</t>
-        </is>
+      <c r="D18" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +744,11 @@
           <t>customer.isMember() == $param</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr" s="0">
-        <is>
-          <t>customer.setDiscount($param);</t>
-        </is>
+      <c r="D19" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -724,7 +761,8 @@
       <c r="C20" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
         <v>3</v>
       </c>
     </row>
@@ -738,7 +776,8 @@
       <c r="C21" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="D21" t="n" s="0">
+      <c r="D21" s="0"/>
+      <c r="E21" t="n" s="0">
         <v>0.0</v>
       </c>
     </row>
@@ -752,7 +791,8 @@
       <c r="C22" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="D22" t="n" s="0">
+      <c r="D22" s="0"/>
+      <c r="E22" t="n" s="0">
         <v>0.1</v>
       </c>
     </row>
@@ -766,7 +806,8 @@
       <c r="C23" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D23" t="n" s="0">
+      <c r="D23" s="0"/>
+      <c r="E23" t="n" s="0">
         <v>0.2</v>
       </c>
     </row>
@@ -780,8 +821,26 @@
       <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
         <v>12</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>ACTION</t>
+  </si>
+  <si>
+    <t>customer.setCategory("$param")</t>
+  </si>
+  <si>
+    <t>Test for git 2</t>
   </si>
 </sst>
 </file>
@@ -456,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,6 +490,7 @@
           <t>com.example.pricing</t>
         </is>
       </c>
+      <c r="E1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -493,6 +503,7 @@
           <t>com.example.Customer</t>
         </is>
       </c>
+      <c r="E2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -505,6 +516,7 @@
           <t>java.math.BigDecimal</t>
         </is>
       </c>
+      <c r="E3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -517,6 +529,7 @@
           <t>java</t>
         </is>
       </c>
+      <c r="E4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -529,6 +542,7 @@
           <t>false</t>
         </is>
       </c>
+      <c r="E5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -541,6 +555,7 @@
           <t>pricing</t>
         </is>
       </c>
+      <c r="E6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -553,6 +568,7 @@
           <t>discounts</t>
         </is>
       </c>
+      <c r="E7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -565,6 +581,7 @@
           <t>true</t>
         </is>
       </c>
+      <c r="E8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -577,6 +594,7 @@
           <t>10</t>
         </is>
       </c>
+      <c r="E9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -589,6 +607,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="E10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -601,6 +620,7 @@
           <t>2026-09-27</t>
         </is>
       </c>
+      <c r="E11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -613,6 +633,7 @@
           <t>PricingOps</t>
         </is>
       </c>
+      <c r="E12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -625,6 +646,7 @@
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
+      <c r="E13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -637,6 +659,7 @@
           <t>1.0.0</t>
         </is>
       </c>
+      <c r="E14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -649,6 +672,7 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="E15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -661,6 +685,7 @@
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
+      <c r="E16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -673,6 +698,7 @@
           <t>DiscountRules</t>
         </is>
       </c>
+      <c r="E17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -694,6 +720,9 @@
         <is>
           <t>ACTION</t>
         </is>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -713,6 +742,9 @@
           <t>customer.setDiscount($param);</t>
         </is>
       </c>
+      <c r="E19" t="s" s="0">
+        <v>14</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
@@ -727,6 +759,7 @@
       <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
+      <c r="E20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -741,6 +774,7 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
+      <c r="E21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -755,6 +789,7 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
+      <c r="E22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -769,6 +804,7 @@
       <c r="D23" t="n" s="0">
         <v>0.2</v>
       </c>
+      <c r="E23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -782,6 +818,18 @@
       </c>
       <c r="D24" t="s" s="0">
         <v>12</v>
+      </c>
+      <c r="E24" s="0"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -827,7 +827,9 @@
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" s="0"/>
+      <c r="D25" t="s" s="0">
+        <v>15</v>
+      </c>
       <c r="E25" t="s" s="0">
         <v>15</v>
       </c>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="18">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Test for git 2</t>
+  </si>
+  <si>
+    <t>Premium</t>
+  </si>
+  <si>
+    <t>Standard</t>
   </si>
 </sst>
 </file>
@@ -465,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -759,7 +765,9 @@
       <c r="D20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E20" s="0"/>
+      <c r="E20" t="s" s="0">
+        <v>16</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
@@ -774,7 +782,9 @@
       <c r="D21" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E21" s="0"/>
+      <c r="E21" t="s" s="0">
+        <v>17</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
@@ -834,6 +844,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="20">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>Standard</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>TestValue</t>
   </si>
 </sst>
 </file>
@@ -799,7 +805,9 @@
       <c r="D22" t="n" s="0">
         <v>0.1</v>
       </c>
-      <c r="E22" s="0"/>
+      <c r="E22" t="s" s="0">
+        <v>18</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
@@ -829,7 +837,9 @@
       <c r="D24" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E24" s="0"/>
+      <c r="E24" t="s" s="0">
+        <v>19</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="21">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>TestValue</t>
+  </si>
+  <si>
+    <t>NewTestValue2</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -838,7 +841,7 @@
         <v>12</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
@@ -854,15 +857,6 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
-      <c r="E26" s="0"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="22">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>NewTestValue2</t>
+  </si>
+  <si>
+    <t>Test for git 3</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -857,6 +860,15 @@
         <v>15</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B26" s="0"/>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>Test for git 3</t>
+  </si>
+  <si>
+    <t>CONDITION</t>
+  </si>
+  <si>
+    <t>customer.setDiscount($param);</t>
+  </si>
+  <si>
+    <t>8 - 4 - condition</t>
   </si>
 </sst>
 </file>
@@ -483,7 +492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,7 +517,9 @@
           <t>com.example.pricing</t>
         </is>
       </c>
+      <c r="D1" s="0"/>
       <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr" s="0">
@@ -521,7 +532,9 @@
           <t>com.example.Customer</t>
         </is>
       </c>
+      <c r="D2" s="0"/>
       <c r="E2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr" s="0">
@@ -534,7 +547,9 @@
           <t>java.math.BigDecimal</t>
         </is>
       </c>
+      <c r="D3" s="0"/>
       <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr" s="0">
@@ -547,7 +562,9 @@
           <t>java</t>
         </is>
       </c>
+      <c r="D4" s="0"/>
       <c r="E4" s="0"/>
+      <c r="F4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr" s="0">
@@ -560,7 +577,9 @@
           <t>false</t>
         </is>
       </c>
+      <c r="D5" s="0"/>
       <c r="E5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr" s="0">
@@ -573,7 +592,9 @@
           <t>pricing</t>
         </is>
       </c>
+      <c r="D6" s="0"/>
       <c r="E6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr" s="0">
@@ -586,7 +607,9 @@
           <t>discounts</t>
         </is>
       </c>
+      <c r="D7" s="0"/>
       <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr" s="0">
@@ -599,7 +622,9 @@
           <t>true</t>
         </is>
       </c>
+      <c r="D8" s="0"/>
       <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr" s="0">
@@ -612,7 +637,9 @@
           <t>10</t>
         </is>
       </c>
+      <c r="D9" s="0"/>
       <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr" s="0">
@@ -625,7 +652,9 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="D10" s="0"/>
       <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr" s="0">
@@ -638,7 +667,9 @@
           <t>2026-09-27</t>
         </is>
       </c>
+      <c r="D11" s="0"/>
       <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr" s="0">
@@ -651,7 +682,9 @@
           <t>PricingOps</t>
         </is>
       </c>
+      <c r="D12" s="0"/>
       <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr" s="0">
@@ -664,7 +697,9 @@
           <t>alice@example.com,bob@example.com</t>
         </is>
       </c>
+      <c r="D13" s="0"/>
       <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr" s="0">
@@ -677,7 +712,9 @@
           <t>1.0.0</t>
         </is>
       </c>
+      <c r="D14" s="0"/>
       <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr" s="0">
@@ -690,7 +727,9 @@
           <t>2025-09-27</t>
         </is>
       </c>
+      <c r="D15" s="0"/>
       <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr" s="0">
@@ -703,7 +742,9 @@
           <t>Sample extended decision table for development &amp; tests.</t>
         </is>
       </c>
+      <c r="D16" s="0"/>
       <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr" s="0">
@@ -716,7 +757,9 @@
           <t>DiscountRules</t>
         </is>
       </c>
+      <c r="D17" s="0"/>
       <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr" s="0">
@@ -734,12 +777,13 @@
           <t>CONDITION</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr" s="0">
-        <is>
-          <t>ACTION</t>
-        </is>
+      <c r="D18" t="s" s="0">
+        <v>22</v>
       </c>
       <c r="E18" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -755,12 +799,13 @@
           <t>customer.isMember() == $param</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr" s="0">
-        <is>
-          <t>customer.setDiscount($param);</t>
-        </is>
+      <c r="D19" t="s" s="0">
+        <v>9</v>
       </c>
       <c r="E19" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>14</v>
       </c>
     </row>
@@ -774,10 +819,11 @@
       <c r="C20" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="D20" s="0"/>
+      <c r="E20" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>16</v>
       </c>
     </row>
@@ -791,10 +837,11 @@
       <c r="C21" t="b" s="0">
         <v>0</v>
       </c>
-      <c r="D21" t="n" s="0">
+      <c r="D21" s="0"/>
+      <c r="E21" t="n" s="0">
         <v>0.0</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>17</v>
       </c>
     </row>
@@ -808,10 +855,11 @@
       <c r="C22" t="b" s="0">
         <v>1</v>
       </c>
-      <c r="D22" t="n" s="0">
+      <c r="D22" s="0"/>
+      <c r="E22" t="n" s="0">
         <v>0.1</v>
       </c>
-      <c r="E22" t="s" s="0">
+      <c r="F22" t="s" s="0">
         <v>18</v>
       </c>
     </row>
@@ -825,10 +873,11 @@
       <c r="C23" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="D23" t="n" s="0">
+      <c r="D23" s="0"/>
+      <c r="E23" t="n" s="0">
         <v>0.2</v>
       </c>
-      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
@@ -840,10 +889,11 @@
       <c r="C24" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="D24" t="s" s="0">
+      <c r="D24" s="0"/>
+      <c r="E24" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>20</v>
       </c>
     </row>
@@ -853,10 +903,11 @@
       </c>
       <c r="B25" s="0"/>
       <c r="C25" s="0"/>
-      <c r="D25" t="s" s="0">
+      <c r="D25" s="0"/>
+      <c r="E25" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="E25" t="s" s="0">
+      <c r="F25" t="s" s="0">
         <v>15</v>
       </c>
     </row>
@@ -868,6 +919,19 @@
       <c r="C26" s="0"/>
       <c r="D26" s="0"/>
       <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="26">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>8 - 4 - condition</t>
+  </si>
+  <si>
+    <t>0000000000000000</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -917,21 +920,11 @@
       </c>
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
-      <c r="D26" s="0"/>
+      <c r="D26" t="s" s="0">
+        <v>25</v>
+      </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="0">
-        <v>7</v>
-      </c>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="29">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -92,6 +92,15 @@
   </si>
   <si>
     <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>TestBranchNameFix</t>
+  </si>
+  <si>
+    <t>1111111111111111111</t>
+  </si>
+  <si>
+    <t>Test for git 4</t>
   </si>
 </sst>
 </file>
@@ -495,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -897,7 +906,7 @@
         <v>12</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
@@ -921,10 +930,20 @@
       <c r="B26" s="0"/>
       <c r="C26" s="0"/>
       <c r="D26" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="27">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>Test for git 5</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,6 +929,16 @@
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
     </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0"/>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="E27" s="0"/>
+      <c r="F27" s="0"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/rules/DisRules2.xlsx
+++ b/rules/DisRules2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="15">
   <si>
     <t>New Teen Rule</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>3</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Test 123</t>
   </si>
 </sst>
 </file>
@@ -456,7 +462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -719,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s" s="0">
         <v>2</v>
@@ -783,6 +789,14 @@
       <c r="D24" t="s" s="0">
         <v>12</v>
       </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B25" s="0"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
